--- a/GameData/JokerInfo.xlsx
+++ b/GameData/JokerInfo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,7 +38,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill</t>
+    <t>JokerGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JokerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JokerSFX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +428,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -427,11 +443,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -440,10 +465,18 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -453,10 +486,18 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">

--- a/GameData/JokerInfo.xlsx
+++ b/GameData/JokerInfo.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>

--- a/GameData/JokerInfo.xlsx
+++ b/GameData/JokerInfo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JokerGrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,6 +51,66 @@
   </si>
   <si>
     <t>JokerSFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pair_D+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastHand_Dx3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ace+30chip+x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spade_Clover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heart_1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold_Grow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>straight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pair_Chip_50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PopCone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JokerSumDria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pairx2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,15 +157,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -443,19 +496,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -466,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -481,108 +534,314 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
       <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
